--- a/data/trans_orig/P25C$cursos_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P25C$cursos_2023-Dificultad-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4535</v>
+        <v>6401</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01145239116365568</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05171868287334146</v>
+        <v>0.07299273139570613</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4754</v>
+        <v>5008</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.007237260199916269</v>
+        <v>0.007237260199916267</v>
       </c>
       <c r="V4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03425885050120746</v>
+        <v>0.03608709633927549</v>
       </c>
     </row>
     <row r="5">
@@ -807,16 +807,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7846</v>
+        <v>7943</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02653610341027787</v>
+        <v>0.02653610341027786</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08947020024185601</v>
+        <v>0.09058248949986512</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4314</v>
+        <v>4398</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.02765674803661668</v>
+        <v>0.02765674803661669</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08446321994346952</v>
+        <v>0.08611663218583247</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -846,19 +846,19 @@
         <v>3740</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>983</v>
+        <v>997</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9637</v>
+        <v>9923</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02694856433623886</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007086660996067193</v>
+        <v>0.007181739506112027</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06945193151878834</v>
+        <v>0.07150723210575</v>
       </c>
     </row>
     <row r="6">
@@ -878,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6344</v>
+        <v>6351</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.01226441059572702</v>
+        <v>0.01226441059572701</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07234122565304899</v>
+        <v>0.07242129155107979</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6013</v>
+        <v>6466</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.007750410321433122</v>
+        <v>0.007750410321433121</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04332919261549761</v>
+        <v>0.04659662499996139</v>
       </c>
     </row>
     <row r="7">
@@ -938,19 +938,19 @@
         <v>3690</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1405</v>
+        <v>1426</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8403</v>
+        <v>8161</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04207492562316658</v>
+        <v>0.04207492562316657</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01602344350449975</v>
+        <v>0.01625883444397828</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0958227032838833</v>
+        <v>0.09306631471895369</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -959,19 +959,19 @@
         <v>2011</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5609</v>
+        <v>5546</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03937199744428952</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01183328983907107</v>
+        <v>0.01151395452557121</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1098180642276297</v>
+        <v>0.1085887860876784</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -980,19 +980,19 @@
         <v>5700</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2727</v>
+        <v>2758</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10455</v>
+        <v>11226</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04108009440436357</v>
+        <v>0.04108009440436355</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01965513400401547</v>
+        <v>0.01987265015650759</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07533999394840579</v>
+        <v>0.08089887032969624</v>
       </c>
     </row>
     <row r="8">
@@ -1009,19 +1009,19 @@
         <v>77333</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>69625</v>
+        <v>70809</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>82200</v>
+        <v>82589</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8818696383578787</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7939760248587395</v>
+        <v>0.8074735454948624</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9373724675522623</v>
+        <v>0.941812929425883</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -1030,19 +1030,19 @@
         <v>46533</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>42599</v>
+        <v>42333</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49100</v>
+        <v>49160</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9111069279500088</v>
+        <v>0.9111069279500089</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8340715789359466</v>
+        <v>0.8288640858485855</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9613662052217375</v>
+        <v>0.9625380169381912</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>145</v>
@@ -1051,19 +1051,19 @@
         <v>123866</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>115741</v>
+        <v>115333</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>129362</v>
+        <v>129910</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8926306229325852</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8340773764521525</v>
+        <v>0.8311383751315482</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9322353503549086</v>
+        <v>0.9361882044140464</v>
       </c>
     </row>
     <row r="9">
@@ -1083,16 +1083,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8034</v>
+        <v>7904</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02580253084929423</v>
+        <v>0.02580253084929422</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09162146662953802</v>
+        <v>0.09012806065983073</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3606</v>
+        <v>3812</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.02186432656908494</v>
+        <v>0.02186432656908495</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07060205392358632</v>
+        <v>0.07463174525588497</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1122,19 +1122,19 @@
         <v>3379</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9461</v>
+        <v>8673</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02435304780546302</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.007695754489251076</v>
+        <v>0.007666235548202666</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06818361497755669</v>
+        <v>0.06249999243778794</v>
       </c>
     </row>
     <row r="10">
@@ -1202,19 +1202,19 @@
         <v>2444</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7026</v>
+        <v>7455</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01257712852915903</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003102662348902714</v>
+        <v>0.003042217809824194</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03615785839487264</v>
+        <v>0.0383640764282418</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1223,19 +1223,19 @@
         <v>1886</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5142</v>
+        <v>5384</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02149534922828956</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006811066471197783</v>
+        <v>0.006703404452460104</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05858960462022873</v>
+        <v>0.061355945032909</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1244,19 +1244,19 @@
         <v>4330</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1622</v>
+        <v>1937</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8953</v>
+        <v>9553</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01535169986045294</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.005749076792743617</v>
+        <v>0.006867528793789878</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03174151068957356</v>
+        <v>0.03386836843276499</v>
       </c>
     </row>
     <row r="12">
@@ -1273,19 +1273,19 @@
         <v>18453</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10847</v>
+        <v>11998</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28354</v>
+        <v>28422</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.09496329215241883</v>
+        <v>0.09496329215241885</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05581973488516677</v>
+        <v>0.06174303286523203</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1459143689781541</v>
+        <v>0.1462662944367034</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1294,19 +1294,19 @@
         <v>3653</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1309</v>
+        <v>1343</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8521</v>
+        <v>8118</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04162138618251349</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01491722419804541</v>
+        <v>0.0153054142365931</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09710137627274876</v>
+        <v>0.09250295495888528</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>22</v>
@@ -1315,19 +1315,19 @@
         <v>22106</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>14166</v>
+        <v>14079</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31904</v>
+        <v>33613</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07836795009331236</v>
+        <v>0.07836795009331239</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05022066360215056</v>
+        <v>0.04991408684054222</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1131048221340257</v>
+        <v>0.1191621668405443</v>
       </c>
     </row>
     <row r="13">
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4666</v>
+        <v>4687</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.006779741611910809</v>
+        <v>0.00677974161191081</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02401470996165173</v>
+        <v>0.02411883236412722</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4117</v>
+        <v>3595</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0131956310941997</v>
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04691228111718956</v>
+        <v>0.04096997288425385</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1386,19 +1386,19 @@
         <v>2475</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6351</v>
+        <v>6064</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.008775806031357662</v>
+        <v>0.008775806031357665</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002292962814905365</v>
+        <v>0.002283440884869014</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02251504261965839</v>
+        <v>0.02149727904963272</v>
       </c>
     </row>
     <row r="14">
@@ -1415,19 +1415,19 @@
         <v>3557</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1134</v>
+        <v>1141</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8257</v>
+        <v>8111</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01830472103174001</v>
+        <v>0.01830472103174002</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00583831974027821</v>
+        <v>0.005873761070491282</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04249046842371962</v>
+        <v>0.04174177723780653</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -1436,19 +1436,19 @@
         <v>3138</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1051</v>
+        <v>1211</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6841</v>
+        <v>6905</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.03576190680438552</v>
+        <v>0.03576190680438551</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01197984139281538</v>
+        <v>0.01380105838181423</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07795423174128736</v>
+        <v>0.07868244115655326</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1457,19 +1457,19 @@
         <v>6695</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3439</v>
+        <v>3576</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12445</v>
+        <v>12112</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02373587246922085</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01219111511178261</v>
+        <v>0.01267919638863991</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04412024993552205</v>
+        <v>0.04293965798678705</v>
       </c>
     </row>
     <row r="15">
@@ -1486,19 +1486,19 @@
         <v>164803</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>152756</v>
+        <v>151734</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>174166</v>
+        <v>174106</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8481158275462055</v>
+        <v>0.8481158275462054</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7861186854165231</v>
+        <v>0.7808578176724149</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8963002807040609</v>
+        <v>0.8959919809738643</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>111</v>
@@ -1507,19 +1507,19 @@
         <v>77912</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>72447</v>
+        <v>71776</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>82167</v>
+        <v>81743</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.8878117755874479</v>
+        <v>0.8878117755874481</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8255374685689102</v>
+        <v>0.8178917559073826</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9363038757229161</v>
+        <v>0.931474883136948</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>307</v>
@@ -1528,19 +1528,19 @@
         <v>242715</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>230824</v>
+        <v>229869</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>252887</v>
+        <v>253787</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.8604657393861873</v>
+        <v>0.8604657393861875</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8183100123596632</v>
+        <v>0.8149234356399604</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.896527939800304</v>
+        <v>0.8997172203956368</v>
       </c>
     </row>
     <row r="16">
@@ -1557,19 +1557,19 @@
         <v>6716</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2450</v>
+        <v>2130</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18345</v>
+        <v>17164</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.034559727827006</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01260765216070867</v>
+        <v>0.01096075468076569</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09440705268916866</v>
+        <v>0.08832932457203041</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1578,19 +1578,19 @@
         <v>1953</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5426</v>
+        <v>5708</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02224913553991846</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006334280571579422</v>
+        <v>0.006224139082080556</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06182769175399684</v>
+        <v>0.06504273841350397</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -1599,19 +1599,19 @@
         <v>8668</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3835</v>
+        <v>3549</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20348</v>
+        <v>18422</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03072974675978133</v>
+        <v>0.03072974675978134</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01359437912719415</v>
+        <v>0.01258220230795693</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07213599223316121</v>
+        <v>0.06530780897345471</v>
       </c>
     </row>
     <row r="17">
@@ -1631,16 +1631,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2818</v>
+        <v>2981</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.002940024015155337</v>
+        <v>0.002940024015155338</v>
       </c>
       <c r="H17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01449997806781392</v>
+        <v>0.01534134514075138</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1665,16 +1665,16 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2930</v>
+        <v>2967</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.002025345334175745</v>
+        <v>0.002025345334175746</v>
       </c>
       <c r="V17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0103872683144319</v>
+        <v>0.01051845027472666</v>
       </c>
     </row>
     <row r="18">
@@ -1708,19 +1708,19 @@
         <v>2837</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1057</v>
+        <v>637</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8060</v>
+        <v>7805</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03092448895216281</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01151499642557753</v>
+        <v>0.006938122071395905</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08785153244558661</v>
+        <v>0.08506619954929069</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -1729,19 +1729,19 @@
         <v>2837</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>991</v>
+        <v>602</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>7231</v>
+        <v>6966</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01099290838672363</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.003841163138901545</v>
+        <v>0.002333955697035598</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02801428620072116</v>
+        <v>0.02698814354142584</v>
       </c>
     </row>
     <row r="19">
@@ -1758,19 +1758,19 @@
         <v>3252</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8707</v>
+        <v>8909</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01954615776588614</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005920609814493896</v>
+        <v>0.005904733892124396</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05233741700785624</v>
+        <v>0.05355332672072186</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1779,19 +1779,19 @@
         <v>2127</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>0</v>
+        <v>647</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5676</v>
+        <v>5953</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02318586123358644</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0</v>
+        <v>0.007050457115448501</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06186270618374365</v>
+        <v>0.06488395003233291</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1800,19 +1800,19 @@
         <v>5379</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1962</v>
+        <v>1753</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11216</v>
+        <v>11101</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.02083998437809509</v>
+        <v>0.02083998437809508</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007602934036157532</v>
+        <v>0.006790563840900531</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04345363327287324</v>
+        <v>0.04300832003657826</v>
       </c>
     </row>
     <row r="20">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5169</v>
+        <v>5883</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009373378329677917</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0310710559831468</v>
+        <v>0.0353660710780517</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1850,19 +1850,19 @@
         <v>3061</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6355</v>
+        <v>6136</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.033365061753504</v>
+        <v>0.03336506175350399</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01273325279426408</v>
+        <v>0.01268183195977199</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06926118027858696</v>
+        <v>0.0668805130073994</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1871,19 +1871,19 @@
         <v>4621</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1979</v>
+        <v>1932</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9279</v>
+        <v>8747</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01790184191494116</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00766651213343857</v>
+        <v>0.007484028681636137</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03595149050467831</v>
+        <v>0.03388864408073055</v>
       </c>
     </row>
     <row r="21">
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3205</v>
+        <v>3337</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.00559684650071489</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01926603287361899</v>
+        <v>0.02005702865267921</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1921,19 +1921,19 @@
         <v>1858</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5032</v>
+        <v>5136</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0202519270561585</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.005272913026454502</v>
+        <v>0.005490288006626764</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05483949474755744</v>
+        <v>0.05597511178528074</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1942,19 +1942,19 @@
         <v>2789</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>966</v>
+        <v>947</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6877</v>
+        <v>6298</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01080637342920369</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.003743737597413442</v>
+        <v>0.003669071005452428</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02664587247097952</v>
+        <v>0.02439929848959147</v>
       </c>
     </row>
     <row r="22">
@@ -1971,19 +1971,19 @@
         <v>155509</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>147360</v>
+        <v>147832</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>160607</v>
+        <v>160741</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9348050126743385</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8858246329452866</v>
+        <v>0.8886577823616004</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9654539398841039</v>
+        <v>0.9662612680084202</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>116</v>
@@ -1992,19 +1992,19 @@
         <v>80875</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>75316</v>
+        <v>74958</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>85257</v>
+        <v>85335</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8814747063819022</v>
+        <v>0.8814747063819021</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8208807492431081</v>
+        <v>0.8169763598516838</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9292331580259341</v>
+        <v>0.9300812074472875</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>305</v>
@@ -2013,19 +2013,19 @@
         <v>236383</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>226888</v>
+        <v>226759</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>244059</v>
+        <v>243464</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9158473777651396</v>
+        <v>0.9158473777651394</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.879060620263605</v>
+        <v>0.878559406315758</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9455860253398104</v>
+        <v>0.9432831948490611</v>
       </c>
     </row>
     <row r="23">
@@ -2042,19 +2042,19 @@
         <v>5581</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2289</v>
+        <v>2210</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12999</v>
+        <v>12434</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0335478557983391</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01375933358711471</v>
+        <v>0.01328478280466822</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07814039232292121</v>
+        <v>0.07474345238917569</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -2063,19 +2063,19 @@
         <v>3580</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1336</v>
+        <v>1523</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7597</v>
+        <v>7348</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03901501708239839</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0145589096634736</v>
+        <v>0.01660164234070076</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08280399197394223</v>
+        <v>0.08009155413054364</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>12</v>
@@ -2084,19 +2084,19 @@
         <v>9160</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4814</v>
+        <v>5058</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>15867</v>
+        <v>16978</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.03549129949514765</v>
+        <v>0.03549129949514764</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01865326165220181</v>
+        <v>0.01959559871506146</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06147702561668083</v>
+        <v>0.06577934044963801</v>
       </c>
     </row>
     <row r="24">
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5525</v>
+        <v>5728</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005498603625416415</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02673417306868737</v>
+        <v>0.02771360847423343</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2188,16 +2188,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4700</v>
+        <v>4454</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.01043980129101588</v>
+        <v>0.01043980129101589</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03593763318698837</v>
+        <v>0.03405820154301912</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2206,19 +2206,19 @@
         <v>2502</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>7314</v>
+        <v>7225</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.007413515555549677</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001934822578920687</v>
+        <v>0.001930094412553167</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0216747275727747</v>
+        <v>0.02141008687037589</v>
       </c>
     </row>
     <row r="26">
@@ -2235,19 +2235,19 @@
         <v>3674</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>915</v>
+        <v>1230</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9526</v>
+        <v>9746</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0177747158934005</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004428364966844976</v>
+        <v>0.005949163682514413</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04609078677496485</v>
+        <v>0.04715341083023148</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2256,19 +2256,19 @@
         <v>2695</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7086</v>
+        <v>6624</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.0206109977436346</v>
+        <v>0.02061099774363461</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005322507420942532</v>
+        <v>0.00525818516846646</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05418193253430725</v>
+        <v>0.05064913440125764</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8</v>
@@ -2277,19 +2277,19 @@
         <v>6369</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2696</v>
+        <v>2958</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12590</v>
+        <v>12234</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01887388866886866</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.007990619728165687</v>
+        <v>0.008764824823510965</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03730900180783826</v>
+        <v>0.03625399706632217</v>
       </c>
     </row>
     <row r="27">
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5035</v>
+        <v>4898</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.004698366413701315</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02435992146196464</v>
+        <v>0.02369748445453171</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4</v>
@@ -2327,19 +2327,19 @@
         <v>2873</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>715</v>
+        <v>727</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6577</v>
+        <v>6946</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02197002801630322</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.005466172612322021</v>
+        <v>0.005557954631308272</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0502938394240519</v>
+        <v>0.05311507571630867</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5</v>
@@ -2348,19 +2348,19 @@
         <v>3844</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1451</v>
+        <v>1401</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>8837</v>
+        <v>8353</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01139182680414583</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.004298461307046818</v>
+        <v>0.004150631021452635</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02618579802504793</v>
+        <v>0.02475173838866062</v>
       </c>
     </row>
     <row r="28">
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5207</v>
+        <v>5349</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.007258330175478766</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02519246668171062</v>
+        <v>0.02588081847284093</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -2398,19 +2398,19 @@
         <v>3450</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>7746</v>
+        <v>7718</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.02637937974412174</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01015775544328802</v>
+        <v>0.01011183668696427</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05923202801787791</v>
+        <v>0.05901594693372376</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -2419,19 +2419,19 @@
         <v>4950</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2044</v>
+        <v>2128</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9845</v>
+        <v>9449</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01466850244820077</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006057789482654233</v>
+        <v>0.006304723909800241</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02917520028676044</v>
+        <v>0.02800085525183091</v>
       </c>
     </row>
     <row r="29">
@@ -2448,19 +2448,19 @@
         <v>188499</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>177944</v>
+        <v>178269</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>194866</v>
+        <v>195371</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9120419835581853</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8609699716090831</v>
+        <v>0.8625450482360955</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.942849518809417</v>
+        <v>0.9452938139307255</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>174</v>
@@ -2469,19 +2469,19 @@
         <v>120349</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>114227</v>
+        <v>114369</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>124590</v>
+        <v>124673</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.920257994417496</v>
+        <v>0.9202579944174961</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8734470348439182</v>
+        <v>0.8745354589895868</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.952688733846745</v>
+        <v>0.953324978117926</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>389</v>
@@ -2490,19 +2490,19 @@
         <v>308848</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>297588</v>
+        <v>297179</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>317175</v>
+        <v>317279</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9152260167172172</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8818593693684347</v>
+        <v>0.8806490491971459</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9399028863118035</v>
+        <v>0.94021093457448</v>
       </c>
     </row>
     <row r="30">
@@ -2519,19 +2519,19 @@
         <v>9871</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5317</v>
+        <v>5133</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19256</v>
+        <v>19280</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04775885008061782</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02572492789370431</v>
+        <v>0.0248366904463126</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09317038111460904</v>
+        <v>0.09328565173452029</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>6</v>
@@ -2540,19 +2540,19 @@
         <v>4850</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1567</v>
+        <v>1894</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>11313</v>
+        <v>11250</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03708354785339123</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01197922252999251</v>
+        <v>0.01448297415912499</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08650421563110332</v>
+        <v>0.0860225187956591</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>16</v>
@@ -2561,19 +2561,19 @@
         <v>14720</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>8472</v>
+        <v>8484</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>24867</v>
+        <v>26557</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04362174305188812</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02510430365052371</v>
+        <v>0.02514161472331714</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07368943723670791</v>
+        <v>0.07869810015430351</v>
       </c>
     </row>
     <row r="31">
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6240</v>
+        <v>5970</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.008262663843769726</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.03019169985505246</v>
+        <v>0.02888470208307344</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1762</v>
+        <v>2204</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002973676347745455</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01347259491058987</v>
+        <v>0.0168497014625586</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -2632,19 +2632,19 @@
         <v>2097</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6103</v>
+        <v>6877</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0062129694296051</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001151862906758425</v>
+        <v>0.001142925211830952</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01808622369410361</v>
+        <v>0.02037987581018442</v>
       </c>
     </row>
     <row r="32">
@@ -2665,19 +2665,19 @@
         <v>4585</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1903</v>
+        <v>1626</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>10333</v>
+        <v>10692</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006999063430450683</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002904964711690427</v>
+        <v>0.002482042008775918</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01577471021830951</v>
+        <v>0.0163220888567052</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>9</v>
@@ -2686,19 +2686,19 @@
         <v>6089</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2956</v>
+        <v>2834</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11522</v>
+        <v>11287</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01685025843003408</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.008181391337192536</v>
+        <v>0.007842665412807332</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03188544984173629</v>
+        <v>0.03123558341702491</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>14</v>
@@ -2707,19 +2707,19 @@
         <v>10674</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6147</v>
+        <v>6006</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>17837</v>
+        <v>17853</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01050143241654874</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006047774366924656</v>
+        <v>0.00590929319584097</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01754933853612152</v>
+        <v>0.01756456785977553</v>
       </c>
     </row>
     <row r="33">
@@ -2736,19 +2736,19 @@
         <v>27705</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>18547</v>
+        <v>19260</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>40573</v>
+        <v>40302</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.04229542373745825</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.02831478637975052</v>
+        <v>0.02940268817581927</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06193939054378109</v>
+        <v>0.06152618611358928</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>14</v>
@@ -2757,19 +2757,19 @@
         <v>9888</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>5525</v>
+        <v>5227</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>16250</v>
+        <v>15325</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.02736303668307007</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01528904068488738</v>
+        <v>0.01446515199943946</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.04496939801481092</v>
+        <v>0.04241090106375232</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>40</v>
@@ -2778,19 +2778,19 @@
         <v>37593</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>27686</v>
+        <v>26683</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>50495</v>
+        <v>50440</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03698655214270117</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02723902374188331</v>
+        <v>0.02625295945920364</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0496802330258063</v>
+        <v>0.04962594085060736</v>
       </c>
     </row>
     <row r="34">
@@ -2807,19 +2807,19 @@
         <v>4923</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2019</v>
+        <v>1927</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10551</v>
+        <v>10521</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.007515950671502047</v>
+        <v>0.007515950671502045</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003081774720874889</v>
+        <v>0.002941296583153373</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.01610742931302561</v>
+        <v>0.01606162659273802</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -2828,19 +2828,19 @@
         <v>7092</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3539</v>
+        <v>3875</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>12076</v>
+        <v>13328</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01962717257089831</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.009793315042218391</v>
+        <v>0.01072330435952105</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03341978699524229</v>
+        <v>0.03688456837059246</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>17</v>
@@ -2849,19 +2849,19 @@
         <v>12016</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>7417</v>
+        <v>7383</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>19335</v>
+        <v>18785</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01182182097109422</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.007297165061274131</v>
+        <v>0.007263913725677567</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01902327672225999</v>
+        <v>0.01848158281052755</v>
       </c>
     </row>
     <row r="35">
@@ -2878,19 +2878,19 @@
         <v>9678</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>5396</v>
+        <v>5720</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>16186</v>
+        <v>16283</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01477424865300241</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.008237626032945365</v>
+        <v>0.008732347925728159</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0247096494847352</v>
+        <v>0.02485806058385551</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>16</v>
@@ -2899,19 +2899,19 @@
         <v>10457</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6432</v>
+        <v>5947</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>17116</v>
+        <v>16436</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.02893852817155516</v>
+        <v>0.02893852817155515</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01779820356060476</v>
+        <v>0.0164571749869901</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04736506591484171</v>
+        <v>0.04548399581495267</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>30</v>
@@ -2920,19 +2920,19 @@
         <v>20135</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>13311</v>
+        <v>13726</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>28565</v>
+        <v>28950</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01981003703180325</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01309592890101636</v>
+        <v>0.01350459778830415</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02810420400545103</v>
+        <v>0.02848345397929836</v>
       </c>
     </row>
     <row r="36">
@@ -2949,19 +2949,19 @@
         <v>586143</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>569419</v>
+        <v>569381</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>600728</v>
+        <v>599888</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.894820003626516</v>
+        <v>0.8948200036265158</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.8692890619761304</v>
+        <v>0.8692308953118471</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.9170852254378263</v>
+        <v>0.915803568906505</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>463</v>
@@ -2970,19 +2970,19 @@
         <v>325669</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>315740</v>
+        <v>316181</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>334048</v>
+        <v>334885</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.9012377483963712</v>
+        <v>0.9012377483963711</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8737632780615429</v>
+        <v>0.8749823213194363</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.924426294838067</v>
+        <v>0.9267415718368702</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1146</v>
@@ -2991,19 +2991,19 @@
         <v>911811</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>891783</v>
+        <v>891399</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>928656</v>
+        <v>928020</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.8971016872439435</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8773966342484697</v>
+        <v>0.8770185728754202</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.9136748271519631</v>
+        <v>0.9130491063116548</v>
       </c>
     </row>
     <row r="37">
@@ -3020,19 +3020,19 @@
         <v>24430</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>15655</v>
+        <v>15676</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>37331</v>
+        <v>37216</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.03729498517143256</v>
+        <v>0.03729498517143257</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02389939353286679</v>
+        <v>0.02393137306750177</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05699044826226538</v>
+        <v>0.05681486883186853</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>17</v>
@@ -3041,19 +3041,19 @@
         <v>11498</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7026</v>
+        <v>6703</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>18863</v>
+        <v>18515</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.03182031610541993</v>
+        <v>0.03182031610541992</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01944327371505956</v>
+        <v>0.01854826636031141</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05220070505902336</v>
+        <v>0.05123606135108787</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>40</v>
@@ -3062,19 +3062,19 @@
         <v>35928</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25674</v>
+        <v>26068</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>49678</v>
+        <v>52566</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.03534859073433494</v>
+        <v>0.03534859073433493</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02525962352904727</v>
+        <v>0.02564702480102934</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04887650378154062</v>
+        <v>0.05171753487488471</v>
       </c>
     </row>
     <row r="38">
@@ -3094,16 +3094,16 @@
         <v>575</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>6360</v>
+        <v>6946</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.003479184001331091</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.000877264522625499</v>
+        <v>0.0008774369863766462</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.009709098848047101</v>
+        <v>0.01060355266089766</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1585</v>
+        <v>1979</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.001076191983096108</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.004387087747011517</v>
+        <v>0.00547775833159254</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>4</v>
@@ -3133,19 +3133,19 @@
         <v>2668</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>7489</v>
+        <v>7307</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.002624854682008583</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.000612908248592498</v>
+        <v>0.0006204427136199534</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.00736835406019593</v>
+        <v>0.007188982592330404</v>
       </c>
     </row>
     <row r="39">
